--- a/Фопи/ФОПи/ФОП Мельницький/Графік відпусток  2020.xlsx
+++ b/Фопи/ФОПи/ФОП Мельницький/Графік відпусток  2020.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Фопи\ФОПи\ФОП Мельницький\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nastia\GitHub\Фопи\ФОПи\ФОП Мельницький\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="140" windowWidth="8460" windowHeight="6290"/>
+    <workbookView xWindow="240" yWindow="144" windowWidth="8460" windowHeight="6288"/>
   </bookViews>
   <sheets>
-    <sheet name="2021" sheetId="14" r:id="rId1"/>
-    <sheet name="2020" sheetId="13" r:id="rId2"/>
+    <sheet name="2022" sheetId="15" r:id="rId1"/>
+    <sheet name="2021" sheetId="14" r:id="rId2"/>
+    <sheet name="2020" sheetId="13" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="35">
   <si>
     <t xml:space="preserve">Г Р А Ф І К </t>
   </si>
@@ -122,6 +123,9 @@
   </si>
   <si>
     <t>01-03/-24/03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">щорічних основних і додаткових відпусток у 2022 році </t>
   </si>
 </sst>
 </file>
@@ -241,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -281,6 +285,9 @@
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -602,29 +609,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="4"/>
+    <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="3"/>
       <c r="E1" s="9" t="s">
         <v>22</v>
@@ -648,7 +655,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -656,68 +663,68 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="15" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -742,16 +749,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F12" s="7"/>
     </row>
@@ -759,35 +766,35 @@
       <c r="A13" s="5">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>20</v>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7"/>
     </row>
@@ -796,16 +803,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="13" t="s">
-        <v>18</v>
+      <c r="E15" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -814,36 +821,18 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>7</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -865,27 +854,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="4" customWidth="1"/>
     <col min="2" max="2" width="18" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="4"/>
+    <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="3"/>
       <c r="E1" s="9" t="s">
         <v>22</v>
@@ -909,7 +898,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -917,45 +906,306 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="F9:F10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.21875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -964,21 +1214,21 @@
       <c r="E9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
